--- a/DCISM_WBRMSystem/file/temp_inventory/LB 485 (56 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 485 (56 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 485</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Aircon</t>
@@ -29143,7 +29143,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEjlNdteYoNODOfyvvghG+FJjX3/DiEncXA+SlOFPZvT9bZVmBpvmoZBPuZjwk0u34q6X9T+R685gSIqM2QblQ==" saltValue="kzP6PU/E5Tyo5NMXpFx7rA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="072zCCwWdlMMdtLQiNcGgPQIcMRj56d8k9jtngIscK7qDVIJtYUuL4clhhKlKXlHx0RReuq+y9dvO4DlbIuwVA==" saltValue="BRPu/0XbOhg+PO+db7cCsA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
